--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Data</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>brakuje 20 minut</t>
+  </si>
+  <si>
+    <t>odrobione 20 minut</t>
   </si>
 </sst>
 </file>
@@ -577,19 +580,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +608,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -625,7 +628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -639,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -651,7 +654,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -663,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -675,7 +678,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -685,7 +688,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -697,7 +700,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -707,7 +710,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -721,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -735,7 +738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -747,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -759,7 +762,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -769,7 +772,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -781,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -793,7 +796,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -805,7 +808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -819,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -829,7 +832,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -841,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -857,7 +860,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -871,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -885,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -897,7 +900,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -911,7 +914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -925,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -937,7 +940,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -949,7 +952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -963,7 +966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -975,7 +978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -989,7 +992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1001,7 +1004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1013,7 +1016,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1025,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1037,7 +1040,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1049,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1075,7 +1078,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1112,17 +1115,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1160,217 +1163,223 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1388,7 +1397,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>odrobione 20 minut</t>
+  </si>
+  <si>
+    <t>02.09.14.</t>
+  </si>
+  <si>
+    <t>03.09.14.</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1121,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,15 +1182,27 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.625</v>
+      </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1235,115 +1253,115 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1167,9 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -1207,9 +1209,15 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Data</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>03.09.14.</t>
+  </si>
+  <si>
+    <t>04.09.14.</t>
   </si>
 </sst>
 </file>
@@ -590,15 +593,15 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +617,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -634,7 +637,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -648,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -660,7 +663,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -672,7 +675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -684,7 +687,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -694,7 +697,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -706,7 +709,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -716,7 +719,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -730,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -744,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -756,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -768,7 +771,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -778,7 +781,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -790,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -802,7 +805,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -814,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -828,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -838,7 +841,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -850,7 +853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -866,7 +869,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -880,7 +883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -894,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -906,7 +909,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -920,7 +923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -934,7 +937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -946,7 +949,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -958,7 +961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -972,7 +975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -984,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1010,7 +1013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1022,7 +1025,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1034,7 +1037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1046,7 +1049,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1058,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1087,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1121,17 +1124,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <v>0.86111111111111116</v>
@@ -1183,7 +1186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1198,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1207,7 +1210,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <v>0.75694444444444453</v>
@@ -1219,193 +1222,199 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1423,7 +1432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Data</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>04.09.14.</t>
+  </si>
+  <si>
+    <t>05.09.14.</t>
   </si>
 </sst>
 </file>
@@ -593,15 +596,15 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +620,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -637,7 +640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -651,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -663,7 +666,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -675,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -687,7 +690,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -697,7 +700,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -709,7 +712,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -719,7 +722,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -733,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -747,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -759,7 +762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -771,7 +774,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -781,7 +784,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -793,7 +796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -805,7 +808,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -817,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -831,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -841,7 +844,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -853,7 +856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -869,7 +872,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -883,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -897,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -923,7 +926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -937,7 +940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -949,7 +952,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -961,7 +964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -975,7 +978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -987,7 +990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1013,7 +1016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1025,7 +1028,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1037,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1061,7 +1064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1087,7 +1090,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1124,17 +1127,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <v>0.86111111111111116</v>
@@ -1186,7 +1189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1198,7 +1201,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1210,7 +1213,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <v>0.75694444444444453</v>
@@ -1222,7 +1225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1234,187 +1237,193 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1432,7 +1441,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Data</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>05.09.14.</t>
+  </si>
+  <si>
+    <t>08.09.14.</t>
+  </si>
+  <si>
+    <t>09.09.14.</t>
+  </si>
+  <si>
+    <t>wykorzystane 3h</t>
+  </si>
+  <si>
+    <t>10.09.14.</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1139,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1250,20 +1262,38 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.625</v>
+      </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Data</t>
   </si>
@@ -608,15 +608,15 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -652,7 +652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -678,7 +678,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -702,7 +702,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -724,7 +724,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -748,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -796,7 +796,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -808,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -820,7 +820,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -832,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -846,7 +846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -868,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -898,7 +898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -912,7 +912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -938,7 +938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -952,7 +952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -976,7 +976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -990,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -1002,7 +1002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1028,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1052,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1076,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1139,17 +1139,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1186,10 +1186,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <v>0.86111111111111116</v>
@@ -1201,7 +1201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <v>0.75694444444444453</v>
@@ -1237,7 +1237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1287,173 +1287,177 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1471,7 +1475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Data</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>10.09.14.</t>
+  </si>
+  <si>
+    <t>11.09.14.</t>
   </si>
 </sst>
 </file>
@@ -608,15 +611,15 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +635,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -652,7 +655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -666,7 +669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -678,7 +681,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -690,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -702,7 +705,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -712,7 +715,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -724,7 +727,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -734,7 +737,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -748,7 +751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -762,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -774,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -786,7 +789,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -796,7 +799,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -808,7 +811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -820,7 +823,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -832,7 +835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -846,7 +849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -856,7 +859,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -868,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -884,7 +887,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -898,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -912,7 +915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -924,7 +927,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -938,7 +941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -952,7 +955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -964,7 +967,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -976,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -990,7 +993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -1002,7 +1005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1028,7 +1031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1040,7 +1043,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1052,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1076,7 +1079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1139,17 +1142,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1186,10 +1189,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <v>0.86111111111111116</v>
@@ -1201,7 +1204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1213,7 +1216,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1228,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <v>0.75694444444444453</v>
@@ -1237,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1249,7 +1252,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -1261,7 +1264,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -1273,7 +1276,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
@@ -1301,163 +1304,175 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1475,7 +1490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Data</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>11.09.14.</t>
+  </si>
+  <si>
+    <t>12.09.14.</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1145,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,9 +1332,15 @@
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Data</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>12.09.14.</t>
+  </si>
+  <si>
+    <t>29.09.14.</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,8 +1347,12 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -617,15 +617,15 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -661,7 +661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -687,7 +687,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -733,7 +733,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -757,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -783,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -817,7 +817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -855,7 +855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -877,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -907,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -921,7 +921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -961,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -985,7 +985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -999,7 +999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -1011,7 +1011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1061,7 +1061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1085,7 +1085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1148,17 +1148,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <v>0.86111111111111116</v>
@@ -1210,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <v>0.75694444444444453</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="6">
         <v>0.75</v>
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
@@ -1346,149 +1346,151 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="6">
+        <v>0.73749999999999993</v>
+      </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1506,7 +1508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>29.09.14.</t>
+  </si>
+  <si>
+    <t>30.09.14.</t>
+  </si>
+  <si>
+    <t>2h 40min</t>
+  </si>
+  <si>
+    <t>9h 40min</t>
   </si>
 </sst>
 </file>
@@ -617,15 +626,15 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +650,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -661,7 +670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -687,7 +696,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -699,7 +708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -711,7 +720,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -721,7 +730,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -733,7 +742,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -743,7 +752,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -757,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -771,7 +780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -783,7 +792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -795,7 +804,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -805,7 +814,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -817,7 +826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -829,7 +838,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -841,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -855,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -865,7 +874,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -877,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -893,7 +902,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -907,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -921,7 +930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -933,7 +942,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -947,7 +956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -961,7 +970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -973,7 +982,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -985,7 +994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -1011,7 +1020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -1037,7 +1046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1049,7 +1058,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -1061,7 +1070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1073,7 +1082,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1085,7 +1094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>45</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -1111,7 +1120,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6">
         <v>0.73611111111111116</v>
@@ -1148,17 +1157,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1194,11 +1203,11 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6">
         <v>0.86111111111111116</v>
@@ -1210,7 +1219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1222,7 +1231,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
@@ -1234,7 +1243,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="6">
         <v>0.75694444444444453</v>
@@ -1246,7 +1255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1258,7 +1267,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -1270,7 +1279,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -1282,7 +1291,7 @@
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="6">
         <v>0.75</v>
@@ -1322,7 +1331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
@@ -1334,7 +1343,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
@@ -1346,7 +1355,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>65</v>
       </c>
@@ -1356,141 +1365,149 @@
       <c r="C15" s="6">
         <v>0.73749999999999993</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1508,7 +1525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>01.10.14.</t>
+  </si>
+  <si>
+    <t>02.10.14.</t>
   </si>
 </sst>
 </file>
@@ -640,15 +643,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -682,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -696,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -708,7 +711,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -720,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -732,7 +735,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -742,7 +745,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -754,7 +757,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -764,7 +767,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -778,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -792,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -804,7 +807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -816,7 +819,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -826,7 +829,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -838,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -850,7 +853,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -862,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -876,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -886,7 +889,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -898,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -914,7 +917,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -928,7 +931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -942,7 +945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -954,7 +957,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -968,7 +971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -982,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -994,7 +997,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1006,7 +1009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1032,7 +1035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1058,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1070,7 +1073,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1082,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +1097,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1106,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1132,7 +1135,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1172,14 +1175,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1225,7 +1228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1237,7 +1240,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1249,7 +1252,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1261,7 +1264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1273,7 +1276,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1285,7 +1288,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1337,7 +1340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1349,7 +1352,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1361,7 +1364,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1387,133 +1390,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1530,20 +1533,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1564,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1576,16 +1579,22 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1594,7 +1603,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1612,7 +1621,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1621,7 +1630,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1630,7 +1639,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1639,7 +1648,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1648,7 +1657,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1657,7 +1666,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1666,7 +1675,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1675,7 +1684,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1684,7 +1693,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1693,7 +1702,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1702,7 +1711,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1711,7 +1720,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1720,7 +1729,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1729,7 +1738,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1738,7 +1747,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1747,7 +1756,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1756,7 +1765,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1765,7 +1774,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1774,7 +1783,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1783,7 +1792,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1792,7 +1801,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1801,7 +1810,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1810,7 +1819,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1819,7 +1828,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1828,7 +1837,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1837,7 +1846,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1846,7 +1855,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1855,49 +1864,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Data</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>02.10.14.</t>
+  </si>
+  <si>
+    <t>03.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1536,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,9 +1598,15 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -1846,7 +1855,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Data</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>03.10.14.</t>
+  </si>
+  <si>
+    <t>06.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1539,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,9 +1616,15 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>06.10.14.</t>
+  </si>
+  <si>
+    <t>30 min</t>
   </si>
 </sst>
 </file>
@@ -649,15 +652,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -691,7 +694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -705,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -717,7 +720,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -729,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -741,7 +744,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -751,7 +754,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -763,7 +766,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -773,7 +776,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -787,7 +790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -801,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -813,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -825,7 +828,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -835,7 +838,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -847,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -871,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -885,7 +888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -895,7 +898,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -907,7 +910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -923,7 +926,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -937,7 +940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -951,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -963,7 +966,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -977,7 +980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -991,7 +994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1003,7 +1006,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1015,7 +1018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1041,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1067,7 +1070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1082,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1091,7 +1094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1103,7 +1106,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1115,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1141,7 +1144,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1181,14 +1184,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1234,7 +1237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1246,7 +1249,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1258,7 +1261,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1270,7 +1273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1285,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1294,7 +1297,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1306,7 +1309,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1346,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1358,7 +1361,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1396,133 +1399,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1539,20 +1542,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1573,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1585,7 +1588,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1600,7 +1603,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1623,14 +1626,16 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C5" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1639,7 +1644,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1648,7 +1653,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1657,7 +1662,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1666,7 +1671,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1675,7 +1680,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1684,7 +1689,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1693,7 +1698,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1702,7 +1707,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1711,7 +1716,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1720,7 +1725,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1729,7 +1734,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1738,7 +1743,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1747,7 +1752,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1756,7 +1761,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1765,7 +1770,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1774,7 +1779,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1783,7 +1788,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1792,7 +1797,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1801,7 +1806,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1810,7 +1815,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1819,7 +1824,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1828,7 +1833,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1837,7 +1842,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1846,7 +1851,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1855,7 +1860,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1864,7 +1869,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1873,7 +1878,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1882,49 +1887,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Data</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t>07.10.14.</t>
   </si>
 </sst>
 </file>
@@ -652,15 +655,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -694,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -708,7 +711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -720,7 +723,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -732,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -744,7 +747,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -754,7 +757,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -766,7 +769,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -776,7 +779,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -790,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -804,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -816,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -828,7 +831,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -838,7 +841,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -850,7 +853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -862,7 +865,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -874,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -888,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -898,7 +901,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -910,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -940,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -954,7 +957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -966,7 +969,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -980,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -994,7 +997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1018,7 +1021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1044,7 +1047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1070,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1094,7 +1097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1109,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1118,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1144,7 +1147,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1184,14 +1187,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1237,7 +1240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1249,7 +1252,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1261,7 +1264,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1273,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1285,7 +1288,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1309,7 +1312,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1349,7 +1352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1361,7 +1364,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1373,7 +1376,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1399,133 +1402,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1542,20 +1545,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1576,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1603,7 +1606,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1618,7 +1621,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1635,16 +1638,22 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1653,7 +1662,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1662,7 +1671,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1671,7 +1680,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1680,7 +1689,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1689,7 +1698,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1698,7 +1707,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1707,7 +1716,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1716,7 +1725,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1725,7 +1734,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1734,7 +1743,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1743,7 +1752,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1752,7 +1761,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1761,7 +1770,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1770,7 +1779,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1779,7 +1788,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1788,7 +1797,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1797,7 +1806,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1806,7 +1815,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1815,7 +1824,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1824,7 +1833,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1833,7 +1842,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1842,7 +1851,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1851,7 +1860,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1860,7 +1869,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1869,7 +1878,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1878,7 +1887,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1887,49 +1896,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Data</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>07.10.14.</t>
+  </si>
+  <si>
+    <t>08.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,9 +1657,15 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Data</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>08.10.14.</t>
+  </si>
+  <si>
+    <t>09.10.14.</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>40 min</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1557,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1586,9 @@
       <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1664,17 +1675,25 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Data</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>40 min</t>
+  </si>
+  <si>
+    <t>11.10.14.</t>
+  </si>
+  <si>
+    <t>13.10.14.</t>
+  </si>
+  <si>
+    <t>14.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1030,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1033,7 +1042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1059,7 +1068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1474,37 +1483,37 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1557,7 +1566,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,9 +1709,15 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1710,17 +1725,27 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.79861111111111116</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -1728,8 +1753,12 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -1737,32 +1766,46 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="5">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.94444444444444453</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.53680555555555554</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.84722222222222221</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1771,7 +1814,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1780,7 +1823,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1789,7 +1832,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1798,7 +1841,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1807,7 +1850,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1816,7 +1859,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1825,7 +1868,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1834,7 +1877,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1843,7 +1886,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1852,7 +1895,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1861,7 +1904,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1870,7 +1913,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1879,7 +1922,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1888,7 +1931,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1897,7 +1940,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Data</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>14.10.14.</t>
+  </si>
+  <si>
+    <t>15.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1569,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1806,9 +1809,15 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -679,15 +679,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -735,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -747,7 +747,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -759,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -793,7 +793,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -803,7 +803,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -817,7 +817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -901,7 +901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -915,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -937,7 +937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -967,7 +967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -981,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1071,7 +1071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1097,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1121,7 +1121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1211,14 +1211,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1264,7 +1264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1300,7 +1300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1426,133 +1426,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1569,20 +1569,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5">
         <v>0.71527777777777779</v>
@@ -1739,7 +1739,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>78</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.5625</v>
@@ -1767,7 +1767,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5">
         <v>0.89930555555555547</v>
@@ -1780,7 +1780,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5">
         <v>0.65625</v>
@@ -1808,7 +1808,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>80</v>
       </c>
@@ -1816,14 +1816,14 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C16" s="5">
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1832,7 +1832,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1841,7 +1841,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1850,7 +1850,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1859,7 +1859,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1868,7 +1868,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1877,7 +1877,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1886,7 +1886,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1895,7 +1895,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1904,7 +1904,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1913,7 +1913,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1922,7 +1922,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1931,7 +1931,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1940,7 +1940,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1949,7 +1949,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1958,7 +1958,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1967,7 +1967,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1976,49 +1976,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Data</t>
   </si>
@@ -246,9 +246,6 @@
     <t>10 min</t>
   </si>
   <si>
-    <t>40 min</t>
-  </si>
-  <si>
     <t>11.10.14.</t>
   </si>
   <si>
@@ -259,6 +256,15 @@
   </si>
   <si>
     <t>15.10.14.</t>
+  </si>
+  <si>
+    <t>16.10.14.</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>55 min</t>
   </si>
 </sst>
 </file>
@@ -679,15 +685,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -721,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -735,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -747,7 +753,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -759,7 +765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -771,7 +777,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -781,7 +787,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -793,7 +799,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -803,7 +809,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -817,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -831,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -843,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -855,7 +861,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -865,7 +871,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -877,7 +883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -889,7 +895,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -901,7 +907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -915,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -925,7 +931,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -937,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -953,7 +959,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -967,7 +973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -981,7 +987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -993,7 +999,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1039,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1045,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1071,7 +1077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1097,7 +1103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1109,7 +1115,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1121,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1133,7 +1139,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1145,7 +1151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1171,7 +1177,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1211,14 +1217,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1264,7 +1270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1276,7 +1282,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1288,7 +1294,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1300,7 +1306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1312,7 +1318,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1324,7 +1330,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1336,7 +1342,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1376,7 +1382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1388,7 +1394,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1406,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1426,133 +1432,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1569,20 +1575,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1599,10 +1605,10 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1638,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1647,7 +1653,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1664,7 +1670,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
@@ -1696,7 +1702,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -1711,9 +1717,9 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5">
         <v>0.38541666666666669</v>
@@ -1726,7 +1732,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5">
         <v>0.71527777777777779</v>
@@ -1739,9 +1745,9 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5">
         <v>0.29166666666666669</v>
@@ -1754,7 +1760,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.5625</v>
@@ -1767,7 +1773,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5">
         <v>0.89930555555555547</v>
@@ -1780,9 +1786,9 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5">
         <v>0.3923611111111111</v>
@@ -1795,7 +1801,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5">
         <v>0.65625</v>
@@ -1808,9 +1814,9 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5">
         <v>0.29166666666666669</v>
@@ -1818,21 +1824,29 @@
       <c r="C16" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1841,7 +1855,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1850,7 +1864,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1859,7 +1873,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1868,7 +1882,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1877,7 +1891,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1886,7 +1900,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1895,7 +1909,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1904,7 +1918,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1913,7 +1927,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1922,7 +1936,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1931,7 +1945,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1940,7 +1954,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1949,7 +1963,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1958,7 +1972,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1967,7 +1981,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1976,49 +1990,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Data</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>55 min</t>
+  </si>
+  <si>
+    <t>17.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1578,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1847,9 +1850,15 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>Data</t>
   </si>
@@ -264,10 +264,16 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>55 min</t>
-  </si>
-  <si>
     <t>17.10.14.</t>
+  </si>
+  <si>
+    <t>19.10.14.</t>
+  </si>
+  <si>
+    <t>1h 10 min</t>
+  </si>
+  <si>
+    <t>2h 35 min</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1584,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1614,7 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1851,7 +1857,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5">
         <v>0.29166666666666669</v>
@@ -1865,19 +1871,33 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Data</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>2h 35 min</t>
+  </si>
+  <si>
+    <t>20.10.14.</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1587,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,8 +1906,12 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Data</t>
   </si>
@@ -273,10 +273,10 @@
     <t>1h 10 min</t>
   </si>
   <si>
-    <t>2h 35 min</t>
-  </si>
-  <si>
     <t>20.10.14.</t>
+  </si>
+  <si>
+    <t>3h 35 min</t>
   </si>
 </sst>
 </file>
@@ -697,15 +697,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -777,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -789,7 +789,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -811,7 +811,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -849,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -895,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -919,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -955,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -985,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -999,7 +999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1063,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1089,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1115,7 +1115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1139,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1229,14 +1229,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1282,7 +1282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1394,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1444,133 +1444,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1587,20 +1587,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1617,10 +1617,10 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5">
         <v>0.71527777777777779</v>
@@ -1757,7 +1757,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.5625</v>
@@ -1785,7 +1785,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5">
         <v>0.89930555555555547</v>
@@ -1798,7 +1798,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>78</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5">
         <v>0.65625</v>
@@ -1826,7 +1826,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>80</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>82</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>83</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>0.47222222222222227</v>
@@ -1905,20 +1905,24 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1927,7 +1931,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1936,7 +1940,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1945,7 +1949,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1954,7 +1958,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1963,7 +1967,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1972,7 +1976,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1981,7 +1985,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1990,7 +1994,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1999,7 +2003,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2008,7 +2012,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2017,7 +2021,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2026,49 +2030,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Data</t>
   </si>
@@ -276,7 +276,10 @@
     <t>20.10.14.</t>
   </si>
   <si>
-    <t>3h 35 min</t>
+    <t>21.10.14.</t>
+  </si>
+  <si>
+    <t>4h 55 min</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1590,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1620,7 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,10 +1926,18 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Data</t>
   </si>
@@ -279,7 +279,13 @@
     <t>21.10.14.</t>
   </si>
   <si>
-    <t>4h 55 min</t>
+    <t>22.10.14.</t>
+  </si>
+  <si>
+    <t>2h wykorzystane</t>
+  </si>
+  <si>
+    <t>2h 55 min</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1596,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1626,7 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1943,10 +1949,18 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>Data</t>
   </si>
@@ -285,7 +285,13 @@
     <t>2h wykorzystane</t>
   </si>
   <si>
-    <t>2h 55 min</t>
+    <t>23.10.14.</t>
+  </si>
+  <si>
+    <t>24.10.14.</t>
+  </si>
+  <si>
+    <t>55 min</t>
   </si>
 </sst>
 </file>
@@ -706,15 +712,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -748,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -762,7 +768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -774,7 +780,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -786,7 +792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -798,7 +804,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -808,7 +814,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -820,7 +826,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -830,7 +836,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -844,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -858,7 +864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -870,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -882,7 +888,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -892,7 +898,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -904,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -916,7 +922,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -928,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -942,7 +948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -952,7 +958,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -964,7 +970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -980,7 +986,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1020,7 +1026,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +1066,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1072,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1098,7 +1104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1124,7 +1130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1136,7 +1142,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1148,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1166,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1172,7 +1178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1198,7 +1204,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1238,14 +1244,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1291,7 +1297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1303,7 +1309,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1315,7 +1321,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1327,7 +1333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1351,7 +1357,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1363,7 +1369,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1403,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1415,7 +1421,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1427,7 +1433,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1453,133 +1459,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1596,20 +1602,20 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1626,10 +1632,10 @@
         <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1644,7 +1650,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1659,7 +1665,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1674,7 +1680,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1691,7 +1697,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1706,7 +1712,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
@@ -1723,7 +1729,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -1738,7 +1744,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -1753,7 +1759,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5">
         <v>0.71527777777777779</v>
@@ -1766,7 +1772,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -1781,7 +1787,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.5625</v>
@@ -1794,7 +1800,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5">
         <v>0.89930555555555547</v>
@@ -1807,7 +1813,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>78</v>
       </c>
@@ -1822,7 +1828,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5">
         <v>0.65625</v>
@@ -1835,7 +1841,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>80</v>
       </c>
@@ -1867,7 +1873,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>82</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>83</v>
       </c>
@@ -1899,7 +1905,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>0.47222222222222227</v>
@@ -1914,7 +1920,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -1931,7 +1937,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>86</v>
       </c>
@@ -1948,7 +1954,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -1965,34 +1971,52 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="5">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2001,7 +2025,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2010,7 +2034,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2019,7 +2043,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2028,7 +2052,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2037,7 +2061,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2046,7 +2070,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2055,49 +2079,49 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="wrzesień" sheetId="2" r:id="rId2"/>
     <sheet name="październik" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Data</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>55 min</t>
+  </si>
+  <si>
+    <t>29.10.14.</t>
+  </si>
+  <si>
+    <t>Licznik godzin:</t>
+  </si>
+  <si>
+    <t>2h 13min</t>
   </si>
 </sst>
 </file>
@@ -308,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +418,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1601,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,6 +1629,7 @@
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
@@ -2012,16 +2031,26 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.97291666666666676</v>
+      </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
@@ -2030,7 +2059,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
@@ -2039,7 +2068,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
@@ -2048,7 +2077,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
@@ -2057,7 +2086,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
@@ -2066,7 +2095,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
@@ -2075,7 +2104,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
@@ -2084,51 +2113,59 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
     <sheet name="wrzesień" sheetId="2" r:id="rId2"/>
     <sheet name="październik" sheetId="3" r:id="rId3"/>
+    <sheet name="listopad" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Data</t>
   </si>
@@ -301,6 +302,9 @@
   </si>
   <si>
     <t>2h 13min</t>
+  </si>
+  <si>
+    <t>03.11.14.</t>
   </si>
 </sst>
 </file>
@@ -343,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -379,11 +383,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,6 +440,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1619,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,117 +2076,170 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/praca.xlsx
+++ b/praca.xlsx
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,8 +2232,12 @@
       <c r="A2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>Data</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>03.11.14.</t>
+  </si>
+  <si>
+    <t>Ilość h</t>
+  </si>
+  <si>
+    <t>08.11.14.</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,14 +2225,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2238,12 +2242,133 @@
       <c r="C2" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/praca.xlsx
+++ b/praca.xlsx
@@ -12,12 +12,12 @@
     <sheet name="październik" sheetId="3" r:id="rId3"/>
     <sheet name="listopad" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>Data</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>08.11.14.</t>
+  </si>
+  <si>
+    <t>3h 15min</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2205,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,8 +2259,12 @@
       <c r="B3" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="5">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>Data</t>
   </si>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>3h 15min</t>
+  </si>
+  <si>
+    <t>11.11.14.</t>
+  </si>
+  <si>
+    <t>1h 30min</t>
+  </si>
+  <si>
+    <t>3h 35min</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2214,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,16 +2276,30 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="5">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>Data</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>3h 35min</t>
+  </si>
+  <si>
+    <t>15.11.14.</t>
+  </si>
+  <si>
+    <t>2h 25min</t>
   </si>
 </sst>
 </file>
@@ -769,15 +775,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -811,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -825,7 +831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -837,7 +843,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -849,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -861,7 +867,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -871,7 +877,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -883,7 +889,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -893,7 +899,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -907,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -921,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.67361111111111116</v>
@@ -933,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -945,7 +951,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.375</v>
@@ -955,7 +961,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.81944444444444453</v>
@@ -967,7 +973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -979,7 +985,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.76041666666666663</v>
@@ -991,7 +997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.375</v>
@@ -1015,7 +1021,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.75</v>
@@ -1027,7 +1033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1049,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1089,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1123,7 +1129,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.85416666666666663</v>
@@ -1135,7 +1141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.29166666666666669</v>
@@ -1161,7 +1167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.77083333333333337</v>
@@ -1187,7 +1193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -1199,7 +1205,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.77083333333333337</v>
@@ -1211,7 +1217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1229,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.79166666666666663</v>
@@ -1235,7 +1241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1261,7 +1267,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.73611111111111116</v>
@@ -1301,14 +1307,14 @@
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5">
         <v>0.86111111111111116</v>
@@ -1354,7 +1360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1366,7 +1372,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -1378,7 +1384,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>0.75694444444444453</v>
@@ -1390,7 +1396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1402,7 +1408,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -1426,7 +1432,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.75</v>
@@ -1466,7 +1472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -1478,7 +1484,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>62</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1516,133 +1522,133 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1662,18 +1668,18 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -1708,7 +1714,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1723,7 +1729,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
@@ -1738,7 +1744,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -1755,7 +1761,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1770,7 +1776,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1793,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -1802,7 +1808,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -1817,7 +1823,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5">
         <v>0.71527777777777779</v>
@@ -1830,7 +1836,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -1845,7 +1851,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>0.5625</v>
@@ -1858,7 +1864,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5">
         <v>0.89930555555555547</v>
@@ -1871,7 +1877,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>78</v>
       </c>
@@ -1886,7 +1892,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5">
         <v>0.65625</v>
@@ -1899,7 +1905,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
@@ -1916,7 +1922,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>80</v>
       </c>
@@ -1931,7 +1937,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>82</v>
       </c>
@@ -1946,7 +1952,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>83</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>0.47222222222222227</v>
@@ -1978,7 +1984,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -1995,7 +2001,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>86</v>
       </c>
@@ -2012,7 +2018,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -2029,7 +2035,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>89</v>
       </c>
@@ -2044,7 +2050,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="5">
         <v>0.73263888888888884</v>
@@ -2059,7 +2065,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>90</v>
       </c>
@@ -2076,7 +2082,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>92</v>
       </c>
@@ -2093,7 +2099,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2102,7 +2108,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2111,7 +2117,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2120,7 +2126,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2129,7 +2135,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2138,7 +2144,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2147,56 +2153,56 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2214,19 +2220,19 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2250,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>95</v>
       </c>
@@ -2261,7 +2267,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>99</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="5">
         <v>0.78472222222222221</v>
@@ -2301,97 +2307,105 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.84375</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>Data</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>3h 35min</t>
+  </si>
+  <si>
+    <t>25.11.14.</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2217,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,8 +2305,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
     <sheet name="wrzesień" sheetId="2" r:id="rId2"/>
     <sheet name="październik" sheetId="3" r:id="rId3"/>
     <sheet name="listopad" sheetId="4" r:id="rId4"/>
+    <sheet name="Grudzień" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>Data</t>
   </si>
@@ -326,6 +327,30 @@
   </si>
   <si>
     <t>25.11.14.</t>
+  </si>
+  <si>
+    <t>29.11.14.</t>
+  </si>
+  <si>
+    <t>3h 20min</t>
+  </si>
+  <si>
+    <t>30.11.14.</t>
+  </si>
+  <si>
+    <t>9h 30 min</t>
+  </si>
+  <si>
+    <t>1h 45min</t>
+  </si>
+  <si>
+    <t>33h 15min</t>
+  </si>
+  <si>
+    <t>Suma godzin:</t>
+  </si>
+  <si>
+    <t>06.12.14.</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,9 +2268,11 @@
         <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2311,32 +2338,64 @@
       <c r="B6" s="5">
         <v>0.76041666666666663</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="5">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -2408,4 +2467,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/praca.xlsx
+++ b/praca.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>Data</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>06.12.14.</t>
+  </si>
+  <si>
+    <t>07.12.14.</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>40min</t>
   </si>
 </sst>
 </file>
@@ -2471,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2499,26 +2508,193 @@
       <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="5">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/praca.xlsx
+++ b/praca.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
   <si>
     <t>Data</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>40min</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>13.12.14.</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2489,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,7 +2515,7 @@
         <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2556,10 +2562,18 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>Data</t>
   </si>
@@ -362,10 +362,22 @@
     <t>40min</t>
   </si>
   <si>
-    <t>20h</t>
-  </si>
-  <si>
     <t>13.12.14.</t>
+  </si>
+  <si>
+    <t>20.12.14.</t>
+  </si>
+  <si>
+    <t>21.12.14.</t>
+  </si>
+  <si>
+    <t>31.12.14.</t>
+  </si>
+  <si>
+    <t>4h 40min</t>
+  </si>
+  <si>
+    <t>34h 40min</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2501,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,7 +2527,7 @@
         <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2563,7 +2575,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5">
         <v>0.52083333333333337</v>
@@ -2576,28 +2588,58 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="5">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>

--- a/praca.xlsx
+++ b/praca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="październik" sheetId="3" r:id="rId3"/>
     <sheet name="listopad" sheetId="4" r:id="rId4"/>
     <sheet name="Grudzień" sheetId="5" r:id="rId5"/>
+    <sheet name="Styczeń" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>Data</t>
   </si>
@@ -378,6 +379,27 @@
   </si>
   <si>
     <t>34h 40min</t>
+  </si>
+  <si>
+    <t>06.01.15.</t>
+  </si>
+  <si>
+    <t>17.01.15.</t>
+  </si>
+  <si>
+    <t>7h 5min</t>
+  </si>
+  <si>
+    <t>20.01.15.</t>
+  </si>
+  <si>
+    <t>31.01.15.</t>
+  </si>
+  <si>
+    <t>2h 25min</t>
+  </si>
+  <si>
+    <t>21h 45min</t>
   </si>
 </sst>
 </file>
@@ -2500,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2753,4 +2775,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D2" s="9">
+        <v>7</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/praca.xlsx
+++ b/praca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\praca\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="sierpień" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,14 @@
     <sheet name="listopad" sheetId="4" r:id="rId4"/>
     <sheet name="Grudzień" sheetId="5" r:id="rId5"/>
     <sheet name="Styczeń" sheetId="6" r:id="rId6"/>
+    <sheet name="Luty" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
   <si>
     <t>Data</t>
   </si>
@@ -400,6 +406,24 @@
   </si>
   <si>
     <t>21h 45min</t>
+  </si>
+  <si>
+    <t>14.02.15.</t>
+  </si>
+  <si>
+    <t>15.02.15.</t>
+  </si>
+  <si>
+    <t>8h 25min</t>
+  </si>
+  <si>
+    <t>2h 20min</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>21.02.15.</t>
   </si>
 </sst>
 </file>
@@ -549,6 +573,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -596,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2781,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,4 +3214,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>